--- a/stimuliOddballsList.xlsx
+++ b/stimuliOddballsList.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>stimuliOddballs</t>
   </si>
   <si>
+    <t>arrowImages</t>
+  </si>
+  <si>
     <t>StimuliOddballs/</t>
+  </si>
+  <si>
+    <t>arrowImages/</t>
   </si>
 </sst>
 </file>
@@ -277,80 +283,128 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
